--- a/DTC Anova.xlsx
+++ b/DTC Anova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e1b9c56e7ec9ea/Documents/UMKC/MATH 490/GP1/fileio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63d32b2a3de92b0b/Documents/GitHub/gp2/GP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_B23047880EE6ABE8995EFAF2E42D62B1A034555F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B9EEE8DC-B5E6-47F9-BAB5-2090B36B4A16}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_B23047880EE6ABE8995EFAF2E42D62B1A034555F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CCFD2CE0-106B-43A7-A120-C8422713E540}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -87072,11 +87072,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C238DEE-5914-4CC6-A869-BB20629D2A1B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -87261,7 +87268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4047A070-60F9-4B9F-AC99-866CC6FF76ED}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
